--- a/ArchitectureMetrics.xlsx
+++ b/ArchitectureMetrics.xlsx
@@ -58,9 +58,6 @@
     <t>AbstractClasses</t>
   </si>
   <si>
-    <t>StaticClasses</t>
-  </si>
-  <si>
     <t>Classes</t>
   </si>
   <si>
@@ -116,6 +113,9 @@
   </si>
   <si>
     <t>Distance</t>
+  </si>
+  <si>
+    <t>StaticClasses (don't used)</t>
   </si>
 </sst>
 </file>
@@ -140,7 +140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +150,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -163,17 +175,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="20% — акцент2" xfId="1" builtinId="34"/>
+    <cellStyle name="20% — акцент4" xfId="2" builtinId="42"/>
+    <cellStyle name="20% — акцент5" xfId="3" builtinId="46"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -359,6 +379,54 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-B5BD-41BB-AE88-DC9D145857B5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-B5BD-41BB-AE88-DC9D145857B5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:xVal>
             <c:numRef>
               <c:f>Stat!$J$2:$J$12</c:f>
@@ -408,25 +476,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.21052631578947367</c:v>
+                  <c:v>0.22222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5625E-2</c:v>
+                  <c:v>1.8518518518518517E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.125</c:v>
+                  <c:v>0.12820512820512819</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26315789473684209</c:v>
+                  <c:v>0.37037037037037035</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6</c:v>
+                  <c:v>0.8571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.11724137931034483</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -438,7 +506,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>7.1428571428571425E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1304,16 +1372,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1605,7 +1673,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,7 +1683,7 @@
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
@@ -1626,10 +1694,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1638,53 +1706,53 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>9</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>14</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
         <v>7</v>
       </c>
       <c r="J2" s="1">
@@ -1692,422 +1760,422 @@
         <v>0.1</v>
       </c>
       <c r="K2" s="1">
-        <f>(D2+E2)/(D2+E2+F2+G2+H2)</f>
-        <v>0.21052631578947367</v>
-      </c>
-      <c r="L2" s="2">
-        <f>ABS(K2+J2-1)</f>
-        <v>0.68947368421052635</v>
+        <f>(D2+E2)/(D2+E2+G2+H2)</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="L2" s="1">
+        <f t="shared" ref="L2:L12" si="0">ABS(K2+J2-1)</f>
+        <v>0.67777777777777781</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3">
+        <v>53</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J12" si="1">B3/(C3+B3)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K12" si="2">(D3+E3)/(D3+E3+G3+H3)</f>
+        <v>1.8518518518518517E-2</v>
+      </c>
+      <c r="L3" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14814814814814814</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="G4" s="3">
+        <v>34</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="2"/>
+        <v>0.12820512820512819</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.30036630036630041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.37037037037037035</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.62962962962962965</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3">
-        <v>53</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <f t="shared" ref="J3:J12" si="0">B3/(C3+B3)</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="K3" s="1">
-        <f>(D3+E3)/(D3+E3+F3+G3+H3)</f>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="L3" s="1">
-        <f>ABS(K3+J3-1)</f>
-        <v>0.15104166666666663</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>34</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="K4" s="1">
-        <f>(D4+E4)/(D4+E4+F4+G4+H4)</f>
-        <v>0.125</v>
-      </c>
-      <c r="L4" s="1">
-        <f>ABS(K4+J4-1)</f>
-        <v>0.3035714285714286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>11</v>
-      </c>
-      <c r="G5">
-        <v>17</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <f>(D5+E5)/(D5+E5+F5+G5+H5)</f>
-        <v>0.26315789473684209</v>
-      </c>
-      <c r="L5" s="2">
-        <f>ABS(K5+J5-1)</f>
-        <v>0.73684210526315796</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
         <v>41</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="K6" s="1">
-        <f>(D6+E6)/(D6+E6+F6+G6+H6)</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <f>ABS(K6+J6-1)</f>
-        <v>0.5</v>
-      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>3</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="1"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" si="2"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3">
+        <v>128</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="2"/>
+        <v>0.11724137931034483</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="0"/>
+        <v>4.942528735632179E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="D10" s="5">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>2</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="1"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="2"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="0"/>
+        <v>2.3809523809523725E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3">
         <v>3</v>
       </c>
-      <c r="G7">
+      <c r="C11" s="3">
         <v>1</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
         <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="K7" s="1">
-        <f>(D7+E7)/(D7+E7+F7+G7+H7)</f>
-        <v>0.6</v>
-      </c>
-      <c r="L7" s="1">
-        <f>ABS(K7+J7-1)</f>
-        <v>0.25714285714285712</v>
+        <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
+    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
+        <v>26</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>17</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="G8">
-        <v>128</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="J12" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="2"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="L12" s="4">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="K8" s="1">
-        <f>(D8+E8)/(D8+E8+F8+G8+H8)</f>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="L8" s="1">
-        <f>ABS(K8+J8-1)</f>
-        <v>5.555555555555558E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>10</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="K9" s="1">
-        <f>(D9+E9)/(D9+E9+F9+G9+H9)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <f>ABS(K9+J9-1)</f>
-        <v>0.19999999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="K10" s="1">
-        <f>(D10+E10)/(D10+E10+F10+G10+H10)</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="L10" s="1">
-        <f>ABS(K10+J10-1)</f>
-        <v>2.3809523809523725E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="K11" s="1">
-        <f>(D11+E11)/(D11+E11+F11+G11+H11)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <f>ABS(K11+J11-1)</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>26</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K12" s="1">
-        <f>(D12+E12)/(D12+E12+F12+G12+H12)</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="L12" s="1">
-        <f>ABS(K12+J12-1)</f>
-        <v>6.25E-2</v>
+        <v>7.1428571428571397E-2</v>
       </c>
     </row>
   </sheetData>
